--- a/src/results/featureenvy/tnb.xlsx
+++ b/src/results/featureenvy/tnb.xlsx
@@ -52,10 +52,10 @@
     <t>aoi</t>
   </si>
   <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>Std</t>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>IQR</t>
   </si>
 </sst>
 </file>
@@ -458,151 +458,151 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="C2" t="n">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>75</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>100</v>
+      </c>
+      <c r="I2" t="n">
+        <v>65</v>
+      </c>
+      <c r="J2" t="n">
+        <v>46</v>
+      </c>
+      <c r="K2" t="n">
+        <v>75</v>
+      </c>
+      <c r="L2" t="n">
+        <v>47</v>
+      </c>
+      <c r="M2" t="n">
         <v>79</v>
       </c>
-      <c r="E2" t="n">
-        <v>37</v>
-      </c>
-      <c r="F2" t="n">
-        <v>52</v>
-      </c>
-      <c r="G2" t="n">
-        <v>28</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>23</v>
-      </c>
-      <c r="J2" t="n">
-        <v>43</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>100</v>
-      </c>
-      <c r="M2" t="n">
-        <v>70</v>
-      </c>
       <c r="N2" t="n">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="O2" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F3" t="n">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H3" t="n">
+        <v>43</v>
+      </c>
+      <c r="I3" t="n">
+        <v>59</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>100</v>
       </c>
-      <c r="I3" t="n">
-        <v>65</v>
-      </c>
-      <c r="J3" t="n">
-        <v>46</v>
-      </c>
-      <c r="K3" t="n">
-        <v>75</v>
-      </c>
-      <c r="L3" t="n">
-        <v>47</v>
-      </c>
       <c r="M3" t="n">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="N3" t="n">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="O3" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D4" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
+        <v>70</v>
+      </c>
+      <c r="G4" t="n">
         <v>57</v>
       </c>
-      <c r="G4" t="n">
-        <v>70</v>
-      </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>46</v>
+      </c>
+      <c r="J4" t="n">
         <v>43</v>
       </c>
-      <c r="I4" t="n">
-        <v>59</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="N4" t="n">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="O4" t="n">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -611,37 +611,37 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="F5" t="n">
+        <v>57</v>
+      </c>
+      <c r="G5" t="n">
         <v>70</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>59</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>81</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>53</v>
+      </c>
+      <c r="O5" t="n">
         <v>57</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>46</v>
-      </c>
-      <c r="J5" t="n">
-        <v>43</v>
-      </c>
-      <c r="K5" t="n">
-        <v>100</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91</v>
-      </c>
-      <c r="M5" t="n">
-        <v>76</v>
-      </c>
-      <c r="N5" t="n">
-        <v>43</v>
-      </c>
-      <c r="O5" t="n">
-        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -649,34 +649,34 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="E6" t="n">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="F6" t="n">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G6" t="n">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="K6" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -688,12 +688,12 @@
         <v>37</v>
       </c>
       <c r="O6" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -720,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -732,33 +732,33 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="E8" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -779,15 +779,15 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -811,10 +811,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -826,21 +826,21 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -873,15 +873,15 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -905,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -975,7 +975,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
